--- a/biology/Botanique/Fusarium/Fusarium.xlsx
+++ b/biology/Botanique/Fusarium/Fusarium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fusarium est un genre de champignons imparfaits (deutéromycètes).
 Les formes parfaites (téléomorphes) de quelques espèces de Fusarium sont connues, et appartiennent à la classe des Ascomycètes (ordre des Hypocréales, famille des Nectriacées, genres Gibberella, Calonectria, et Nectria). Pour plusieurs espèces de Fusarium, le stade parfait demeure inconnu.
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Fusarium tire son nom du latin fusus car ses spores sont en forme de fuseau.
 </t>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le principal caractère morphologique des espèces de Fusarium est la présence de macroconidies fusiformes et cloisonnées.
 La culture de Fusarium en laboratoire est en général aisée sur les milieux usuels de mycologie (gélose Sabouraud + Chloramphénicol), on obtient des colonies au bout de 3 à 7 jours à 25°C.
@@ -576,15 +592,52 @@
           <t>Impacts agro-économiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le genre Fusarium regroupe plusieurs espèces phytopathogènes susceptibles d’attaquer un grand nombre de plantes, provoquant des maladies appelées fusarioses.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Fusarium regroupe plusieurs espèces phytopathogènes susceptibles d’attaquer un grand nombre de plantes, provoquant des maladies appelées fusarioses.
 Ces champignons infectent de nombreuses céréales, graminées et autres plantes, et ils survivent dans les graines, dans les résidus de culture et dans le sol. À l'automne, favorisés par les sols humides, ils envahissent le collet, les racines ou les gaines foliaires. À ce stade, ils peuvent provoquer la pourriture des semences et la fonte des semis. Au printemps, ils sont favorisés par les sols secs et la forte concentration d'engrais. Les lésions continuent de s'étendre, donnant lieu à la pourriture du collet, de la tige et des racines.
 Les semences pourrissent ou les plantules meurent avant leur levée. Chez les plantules qui lèvent, la croissance est arrêtée et le collet, les racines ou la base de la tige présentent une pourriture allant du brun au brun rouge.
 Le champignon se conserve dans le sol grâce à ses chlamydospores et au mycélium capable de survivre sur les débris. La dissémination se fait au niveau du sol par les eaux de ruissellement, le vent ou les éclaboussures ou les importations dans l'exploitation de terreaux ou de plants contaminés.
 Certaines espèces saprophytes sont accessoirement capables de se développer en tant que pathogènes secondaires sur des tissus végétaux sénescents.
-Exemples
-En Languedoc-Roussillon, une espèce de Fusarium s'est attaqué à l'asperge et a rendu la terre des parcelles touchées impropres à sa culture plusieurs années.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fusarium</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fusarium</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Impacts agro-économiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En Languedoc-Roussillon, une espèce de Fusarium s'est attaqué à l'asperge et a rendu la terre des parcelles touchées impropres à sa culture plusieurs années.
 Au Maghreb, une espèce de Fusarium est responsable du bayoud, maladie du palmier dattier qui a détruit les deux tiers des palmeraies du Maroc.
 Des espèces de Fusarium s'attaquent aussi au blé, à l'orge, au maïs, à l'avoine, à la tomate, au melon, au concombre, à la courgette, au topinambour, au piment, à la pomme de terre, à la patate douce, à la pastèque, au céleri, à l'ail, à l'oignon, au chou, au gingembre, à la banane, au manioc, aux fleurs d’ornement et à beaucoup d’arbres fruitiers.
 À Madagascar, la fusariose détruit chaque année, des centaines d'hectares de plantation de vanille.
@@ -592,37 +645,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Fusarium</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fusarium</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Toxicologie, écotoxicologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des champignons du genre Fusarium sont connus pour leur aptitude à synthétiser certaines mycotoxines sur la plante, certaines toxines n'étant synthétisées que par certaines espèces. Les quantités et les types de mycotoxines varient selon les souches de fusarium présents sur les plants. Aujourd'hui, les principales mycotoxines surveillées dans les produits alimentaires sont la déoxynivalénol (DON) et la zéaralénone (ZEA) produites par F. graminearum. On les retrouve à la récolte, dans l’immense majorité des cas en d’infimes quantités (quelques ppm voire ppb), mais des pics de contamination sont parfois observés.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -644,10 +666,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Toxicologie, écotoxicologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des champignons du genre Fusarium sont connus pour leur aptitude à synthétiser certaines mycotoxines sur la plante, certaines toxines n'étant synthétisées que par certaines espèces. Les quantités et les types de mycotoxines varient selon les souches de fusarium présents sur les plants. Aujourd'hui, les principales mycotoxines surveillées dans les produits alimentaires sont la déoxynivalénol (DON) et la zéaralénone (ZEA) produites par F. graminearum. On les retrouve à la récolte, dans l’immense majorité des cas en d’infimes quantités (quelques ppm voire ppb), mais des pics de contamination sont parfois observés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fusarium</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fusarium</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Effets sur l'animal ou l'être humain</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis une vingtaine d’années, on sait que certaines espèces de Fusarium sont susceptibles de réaliser de graves infections opportunistes surtout chez les personnes immuno-déprimées.
 Les spores de Fusarium aéroportées et inhalés, ou ingérées avec la nourriture, peuvent être une source importante de problèmes de santé,
@@ -659,42 +716,78 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Fusarium</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fusarium</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fusarium</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fusarium</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Quelques espèces de Fusarium</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fusarium euwallaceae
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Fusarium euwallaceae
 Fusarium tricinctum
 Fusarium poae
 Fusarium langsethiae
 Fusarium du groupe roseum qui contient les espèces : Fusarium graminearum, Fusarium culmorum, Fusarium arthrosporioides et Fusarium avenaceum, entre autres.
 Fusarium moniliforme variété subglutinans
 Fusarium oxysporum
-Fusarium solani
-Espèces de Fusarium pathogènes primaires
-Fusarium solani
+Fusarium solani</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fusarium</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fusarium</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Quelques espèces de Fusarium</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Espèces de Fusarium pathogènes primaires</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Fusarium solani
 Fusarium avenaceum
 Fusarium culmorum
 Fusarium graminearum
@@ -704,49 +797,154 @@
 Fusarium proliferatum
 Fusarium sporotrichioides
 Fusarium subglutinans
-Fusarium tricinctum
-Fusarium non pathogènes primaires
-Fusarium acuminatum
+Fusarium tricinctum</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fusarium</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fusarium</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Quelques espèces de Fusarium</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Fusarium non pathogènes primaires</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Fusarium acuminatum
 Fusarium equiseti
 Fusarium lateritium
-Fusarium sambucinum
-Autre
-Microdochium nivale ou Monographella nivalis var. nivalis
+Fusarium sambucinum</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Fusarium</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fusarium</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Quelques espèces de Fusarium</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Autre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Microdochium nivale ou Monographella nivalis var. nivalis
 Monographella nivalis var. nivalis ne fait pas partie des Fusarium, mais ce champignon provoque une maladie évoquant la  fusariose sur les épis de blé, raison pour laquelle il est souvent confondu avec Fusarium.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Fusarium</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fusarium</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fusarium</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fusarium</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taxinomie du genre est complexe. Un certain nombre de schémas différents ont été envisagés et jusqu'à mille espèces ont été identifiées à certains moments, selon les concepts de spéciation larges ou étroits adoptés par les auteurs[1],[2],[3].
-Les études phylogénétiques indiquent sept clades principaux dans le genre[3].
-Subdivisions
-Divers schémas ont conduit à subdiviser le genre en sous-genres et en sections. Il existe cependant une mauvaise corrélation entre les sections et les clades phylogénétiques[3]
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taxinomie du genre est complexe. Un certain nombre de schémas différents ont été envisagés et jusqu'à mille espèces ont été identifiées à certains moments, selon les concepts de spéciation larges ou étroits adoptés par les auteurs.
+Les études phylogénétiques indiquent sept clades principaux dans le genre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Fusarium</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fusarium</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Subdivisions</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Divers schémas ont conduit à subdiviser le genre en sous-genres et en sections. Il existe cependant une mauvaise corrélation entre les sections et les clades phylogénétiques
 Les sections précédemment décrites sont notamment :
 Arachnites
 Arthrosporiella
@@ -761,8 +959,43 @@
 Roseum
 Spicarioides
 Sporotrichiella
-Liste d'espèces
-Selon Catalogue of Life                                   (8 avril 2017)[4] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Fusarium</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fusarium</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (8 avril 2017) :
 Fusarium acaciae-mearnsii O'Donnell, T. Aoki, Kistler &amp; Geiser, 2004
 Fusarium aethiopicum O'Donnell, Aberra, Kistler &amp; T. Aoki, 2008
 Fusarium albidum (Rossman) O'Donnell &amp; Geiser, 2015
